--- a/biology/Botanique/Basidiomycota/Basidiomycota.xlsx
+++ b/biology/Botanique/Basidiomycota/Basidiomycota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les basidiomycètes (Basidiomycota) constituent un vaste embranchement (ou division, ou phylum) des mycètes qui regroupe la plupart des espèces désignées dans la langue courante par le nom de champignon.
 Ils sont caractérisés par des spores formées à l'extrémité de cellules spécialisées, les basides.
@@ -513,7 +525,9 @@
           <t>Évolution de la classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Autrefois, tous les Basidiomycota étaient appelés Basidiomycètes, une classe invalide créée en 1959 en parallèle à celle des Ascomycètes, mais ces deux classes ne sont plus reconnues comme des phyla. Les termes « Basidiomycètes » et « Ascomycètes » sont fréquemment utilisés en français pour désigner les Basidiomycota et Ascomycota, dont ils ne sont qu'une traduction.
 L'embranchement était précédemment réparti en trois grandes classes :
@@ -521,13 +535,47 @@
 Phragmobasidiomycetes : basides cloisonnées, production possible de spores secondaires. Cette classe comporte notamment les trémelles et l'oreille de Judas.
 Teliomycetes : basides cloisonnées transversalement. Champignons parasites (rouilles) des végétaux supérieurs ou charbons des graminées.
 À ces trois classes, il convient d'ajouter des groupes de transition comportant des champignons difficilement classables, comportant des caractéristiques appartenant à des classes différentes. Parmi ces « inclassables », on peut noter les calocères.
-Une vaste étude phylogénétique réalisée en 2007, réalisée par plus d'une soixantaine de chercheurs[1], dont le classement est adopté par The Tree of Life Web Project[2] et Myconet[3],[4] a reconnu trois subphyla (Pucciniomycotina, Ustilaginomycotina, Agaricomycotina) et deux nouvelles classes non affectées (Wallemiomycetes, Entorrhizomycetes) parmi les Basidiomycota[5].
+Une vaste étude phylogénétique réalisée en 2007, réalisée par plus d'une soixantaine de chercheurs, dont le classement est adopté par The Tree of Life Web Project et Myconet, a reconnu trois subphyla (Pucciniomycotina, Ustilaginomycotina, Agaricomycotina) et deux nouvelles classes non affectées (Wallemiomycetes, Entorrhizomycetes) parmi les Basidiomycota.
 Les Agaricomycotina incluent les anciens Hymenomycetes, Gasteromycetes et Heterobasidiomycetes.
 Les Ustilaginomycotina sont constitués principalement des anciens Exobasidiales.
 Les Pucciniomycotina incluent les Septobasidium, un ancien groupe de Microbotryomycetes.
-Deux classes, Wallemiomycetes et Entorrhizomycetes n'appartiennent pour l'instant à aucun subphylum.
-Classification linnéenne (morphologique)
-Selon la vaste étude de 2007[6] :
+Deux classes, Wallemiomycetes et Entorrhizomycetes n'appartiennent pour l'instant à aucun subphylum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Évolution de la classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Classification linnéenne (morphologique)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la vaste étude de 2007 :
 sous-embranchement Pucciniomycotina
 classe Pucciniomycetes
 ordres Septobasidiales, Pachnocybales, Helicobasidiales, Platygloeales, Pucciniales
@@ -578,9 +626,84 @@
 			Microbotryum saponariae, un Microbotryomycetes
 			Mixia osmundae, un Mixiomycetes
 			Gymnosporangium fuscum, un Pucciniomycetes
-Classification phylogénétique
-Ce classement proposé en 2007 de l'embranchement des Basidiomycota[6],[7] suggère parfois des résultats contradictoires avec l'ancienne classification, uniquement basée sur des critères morphologiques et physiologiques.
-Arbre phylogénétique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évolution de la classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce classement proposé en 2007 de l'embranchement des Basidiomycota, suggère parfois des résultats contradictoires avec l'ancienne classification, uniquement basée sur des critères morphologiques et physiologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évolution de la classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Arbre phylogénétique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Basidiomycota
 Wallemiomycetes (incertae sedis)
 Entorrhizomycetes (incertae sedis)
@@ -615,35 +738,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Basidiomycota</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Cycle de développement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le cycle de reproduction peut être asexué ou végétatif.
 Des spores asexuées (appelées conidies) se forment à partir des filaments mycéliens par simple multiplication cellulaire. La reproduction asexuée joue cependant un rôle plus secondaire que chez les Ascomycètes.
-La reproduction sexuée ne se réalise plus avec des organes sexuellement différenciés comme dans le cas des Ascomycètes. Il y a une simple fusion entre deux cellules morphologiquement indifférenciées appartenant à deux filaments voisins. Cette fusion, à l'origine du mycélium secondaire, ne concerne que les cytoplasmes des cellules. C’est la plasmogamie. Plus tard, la fusion des deux noyaux parentaux a lieu dans les basides : c’est la caryogamie qui correspond au passage de l’état haploïde (n chromosomes) à l’état diploïde (2 n chromosomes). Après la formation des noyaux diploïdes, les processus de méiose permettent le passage de l’état diploïde (2n) à l’état haploïde (n). Les noyaux migrent à l’extrémité des basides et sont distribués dans les basidiospores. Le nombre de noyaux dans les basidiospores est variable. Les basidiospores sont ensuite émises dans le milieu extérieur grâce à une augmentation de la turgescence de la baside mûre. Ces basidiospores peuvent ensuite être disséminées par le vent, la pluie ou le déplacement des animaux. Il est estimé que 17 millions de tonnes de spores de basidiomycètes flotteraient en permanence dans l'atmosphère terrestre[8].
+La reproduction sexuée ne se réalise plus avec des organes sexuellement différenciés comme dans le cas des Ascomycètes. Il y a une simple fusion entre deux cellules morphologiquement indifférenciées appartenant à deux filaments voisins. Cette fusion, à l'origine du mycélium secondaire, ne concerne que les cytoplasmes des cellules. C’est la plasmogamie. Plus tard, la fusion des deux noyaux parentaux a lieu dans les basides : c’est la caryogamie qui correspond au passage de l’état haploïde (n chromosomes) à l’état diploïde (2 n chromosomes). Après la formation des noyaux diploïdes, les processus de méiose permettent le passage de l’état diploïde (2n) à l’état haploïde (n). Les noyaux migrent à l’extrémité des basides et sont distribués dans les basidiospores. Le nombre de noyaux dans les basidiospores est variable. Les basidiospores sont ensuite émises dans le milieu extérieur grâce à une augmentation de la turgescence de la baside mûre. Ces basidiospores peuvent ensuite être disséminées par le vent, la pluie ou le déplacement des animaux. Il est estimé que 17 millions de tonnes de spores de basidiomycètes flotteraient en permanence dans l'atmosphère terrestre.
 Il y a huit étapes qui décrivent le cycle de développement des Basidiomycètes formant des champignons :
 Étape 1 : Deux mycéliums haploïdes de types sexuels opposés subissent la plasmogamie.
 Étape 2 : Un mycélium dicaryote se forme. Il croît très vite et refoule des mycéliums parentaux.
@@ -656,66 +781,74 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Basidiomycota</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Basidiomycètes comme mycobiontes lichéniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La symbiose lichénique se fait non pas entre une algue et un champignon comme on a longtemps cru, mais généralement avec deux champignons, dont une levure basidiomycète, et une algue.
-Après plus de 140 ans durant lesquels on a cru que l'association était binaire (1 champignon + 1 algue), on a récemment montré (2016) qu'il faut en réalité dans la plupart des lichens un troisième partenaire (qu'on avait d'abord cru être un parasite des lichens) pour que l'association soit pérenne ; il s'agit d'une levure basidiomycète ; c'est cette levure qui est responsable de la forme du thalle du lichen et en partie de sa forme générale[9]. Cette association est durable, reproductible (elle donne naissance à de nouveaux individus, à la formation d'une nouvelle unité fonctionnelle) avec des bénéfices réciproques pour les partenaires, et entraîne des modifications morphologiques et physiologiques (ces dernières liées à des interactions génétiques entre les trois partenaires)[9].
-Les levures sont intégrées dans le cortex lichénique et une corrélation entre leur abondance et des variations autrefois inexpliquées du phénotype a été mise en évidence (2016)[9]. Certaines lignées de Basidiomycete vivent en lien étroit avec certains lichens sur de vastes zones géographiques, souvent retrouvés sur les six continents[9]. Le cortex lichénique est structurellement plus important qu'on ne le pensait ; il ne s'agit pas d'une simple zone de cellules différenciées d'ascomycètes, mais semble-t-il du lieu d'une symbiose (entre deux types différents de champignons) dans la symbiose (champignons-plante)[9].
+Après plus de 140 ans durant lesquels on a cru que l'association était binaire (1 champignon + 1 algue), on a récemment montré (2016) qu'il faut en réalité dans la plupart des lichens un troisième partenaire (qu'on avait d'abord cru être un parasite des lichens) pour que l'association soit pérenne ; il s'agit d'une levure basidiomycète ; c'est cette levure qui est responsable de la forme du thalle du lichen et en partie de sa forme générale. Cette association est durable, reproductible (elle donne naissance à de nouveaux individus, à la formation d'une nouvelle unité fonctionnelle) avec des bénéfices réciproques pour les partenaires, et entraîne des modifications morphologiques et physiologiques (ces dernières liées à des interactions génétiques entre les trois partenaires).
+Les levures sont intégrées dans le cortex lichénique et une corrélation entre leur abondance et des variations autrefois inexpliquées du phénotype a été mise en évidence (2016). Certaines lignées de Basidiomycete vivent en lien étroit avec certains lichens sur de vastes zones géographiques, souvent retrouvés sur les six continents. Le cortex lichénique est structurellement plus important qu'on ne le pensait ; il ne s'agit pas d'une simple zone de cellules différenciées d'ascomycètes, mais semble-t-il du lieu d'une symbiose (entre deux types différents de champignons) dans la symbiose (champignons-plante).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Basidiomycota</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Quelques espèces comestibles
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Quelques espèces comestibles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 Agaric du Devon (Agaricus devoniensis)
 Amanite rougissante ou amanite vineuse (Amanita rubescens)
 Amanite des Césars ou oronge (Amanita caesarea)
@@ -741,15 +874,118 @@
 Tricholome de la Saint-Georges (Tricholoma georgii)
 Tricholome Pied bleu (Lepista nuda)
 Trompette de la mort (Craterellus cornucopioides)
-Quelques comestibles médiocres
-Lactaire couleur saumon (Lactaire salmonicolor)
-Lactaire velouté (Lactarius vellereus)
-Quelques espèces indifférentes
-Amanite citrine (Amanita citrina)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Quelques comestibles médiocres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lactaire couleur saumon (Lactaire salmonicolor)
+Lactaire velouté (Lactarius vellereus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Quelques espèces indifférentes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Amanite citrine (Amanita citrina)
 Coprin blanc et noir ou Coprin pie (Coprinus picaceus)
-Cortinaire violet (Cortinarius violaceus)
-Quelques espèces vénéneuses (toxiques ou mortelles)
-Amanite phalloïde (Amanita phalloides)
+Cortinaire violet (Cortinarius violaceus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Quelques espèces vénéneuses (toxiques ou mortelles)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Amanite phalloïde (Amanita phalloides)
 Amanite tue-mouches (Amanita muscaria)
 Amanite panthère  (Amanita pantherina)
 Amanite vireuse (Amanita virosa)
@@ -760,33 +996,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Basidiomycota</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Basidiomycota</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basidiomycota</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Bioaccumulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les basidiomycètes semblent capables de bioaccumuler divers métaux lourds, métalloïdes, et radionucléides (dont le césium radioactif après les retombées d'essais ou d'accidents nucléaires)[10]. Ils se retrouvent ensuite dans la chaine alimentaire via les animaux qui les consomment, éventuellement jusqu'à l'homme. Les cas de toxicité sont rares, mais par précaution il peut être conseillé d'éviter champignons et gibiers dans certaines circonstances ou provenant de certains endroits. 
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les basidiomycètes semblent capables de bioaccumuler divers métaux lourds, métalloïdes, et radionucléides (dont le césium radioactif après les retombées d'essais ou d'accidents nucléaires). Ils se retrouvent ensuite dans la chaine alimentaire via les animaux qui les consomment, éventuellement jusqu'à l'homme. Les cas de toxicité sont rares, mais par précaution il peut être conseillé d'éviter champignons et gibiers dans certaines circonstances ou provenant de certains endroits. 
 La bioaccumulation peut également porter sur des produits organiques ; dans ce cas le champignon peut aussi modifier ou même éliminer le composé indésirable.
 Ces propriétés peuvent être mise à profit pour la dépollution ou l'extraction, éventuellement en combinaison avec des plantes (phytoextraction).
 </t>
